--- a/صيدليات دكتور مصطفي طلعت_2026-01-13_14-35.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-13_14-35.xlsx
@@ -86,6 +86,9 @@
     <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
   </si>
   <si>
+    <t>ISOMOISTY NASAL SPRAY 30 ML</t>
+  </si>
+  <si>
     <t>MEGALASE SYRUP 125 ML</t>
   </si>
   <si>
@@ -111,6 +114,9 @@
   </si>
   <si>
     <t>PROXIMOL 0.4MG 40 TAB</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -987,13 +993,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
@@ -1013,17 +1019,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1031,7 +1037,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1039,17 +1045,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>440</v>
+        <v>36</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1057,7 +1063,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1065,17 +1071,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>48</v>
+        <v>440</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1091,17 +1097,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1117,13 +1123,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1143,17 +1149,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1161,7 +1167,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1169,17 +1175,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1187,7 +1193,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1195,17 +1201,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1213,7 +1219,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1221,51 +1227,103 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" ht="25.5" customHeight="1">
-      <c r="K24" s="10">
-        <v>1470.9500000000001</v>
-      </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" ht="24.75" customHeight="1">
+      <c r="A24" s="6">
+        <v>21</v>
+      </c>
+      <c t="s" r="B24" s="7">
+        <v>40</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c t="s" r="H24" s="8">
+        <v>41</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9">
+        <v>24</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c t="s" r="N24" s="7">
         <v>42</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c t="s" r="F25" s="12">
+    </row>
+    <row r="25" ht="25.5" customHeight="1">
+      <c r="A25" s="6">
+        <v>22</v>
+      </c>
+      <c t="s" r="B25" s="7">
         <v>43</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
-      <c t="s" r="I25" s="14">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c t="s" r="H25" s="8">
+        <v>13</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="9">
+        <v>20</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c t="s" r="N25" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="K26" s="10">
+        <v>1610.9500000000001</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="11">
         <v>44</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c t="s" r="F27" s="12">
+        <v>45</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
+      <c t="s" r="I27" s="14">
+        <v>46</v>
+      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="77">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1333,10 +1391,16 @@
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:N27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
